--- a/说明.xlsx
+++ b/说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>合同编号</t>
   </si>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排除已到期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户利息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,103 +125,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>出金时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售业绩明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩年化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售提成发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取签字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有资金流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户单月流水汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户现金利息明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>客户资金到期汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排除已出金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出金时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售业绩明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩年化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售提成发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有资金流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户单月流水汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户现金利息明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职时间</t>
+    <t>已出金2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未出金1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未过时全部1、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部1、2、3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +266,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -296,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +320,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,13 +626,13 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -622,6 +640,9 @@
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +685,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -708,10 +729,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -744,84 +765,87 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -856,89 +880,89 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="K9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
         <v>47</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>48</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -946,7 +970,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -973,10 +997,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
         <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
       </c>
       <c r="N12" t="s">
         <v>9</v>

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L8" sqref="L8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,13 +897,13 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J8" t="s">

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>合同编号</t>
   </si>
@@ -77,163 +77,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入金时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户签单活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券抵扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出金时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售业绩明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩年化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售提成发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取签字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有资金流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户单月流水汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户现金利息明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资金到期汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已出金2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未出金1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未过时全部1、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部1、2、3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户签字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签单时间(入金时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>客户资金日报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
+    <t>某日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>签单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入金时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户签单活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代金券抵扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出金时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售业绩明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩年化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售提成发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有资金流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户单月流水汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户现金利息明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户资金到期汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已出金2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未出金1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未过时全部1、2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部1、2、3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +338,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -623,395 +641,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M8"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="Q5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="S5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="T5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>7</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>10</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K9" t="s">
         <v>41</v>
       </c>
-      <c r="M8" t="s">
-        <v>26</v>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="N9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="4"/>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I15" t="s">
         <v>5</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J15" t="s">
         <v>6</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K15" t="s">
         <v>7</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L15" t="s">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
         <v>9</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P15" t="s">
         <v>10</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q15" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T15" t="s">
         <v>12</v>
       </c>
     </row>

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -644,7 +644,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>合同编号</t>
   </si>
@@ -241,15 +241,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>签单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑、标记结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑、出金huizong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑、way</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,14 +659,14 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -663,6 +678,9 @@
       <c r="B1" t="s">
         <v>53</v>
       </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -710,6 +728,9 @@
       <c r="B2" t="s">
         <v>52</v>
       </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
@@ -754,6 +775,9 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -798,6 +822,9 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
@@ -831,13 +858,13 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>3</v>
@@ -866,7 +893,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -912,7 +939,9 @@
       <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
@@ -951,7 +980,9 @@
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1034,13 +1034,13 @@
       <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K9" t="s">

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
   <si>
     <t>合同编号</t>
   </si>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业绩年化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,18 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>领取签字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +249,26 @@
   </si>
   <si>
     <t>编辑、way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩（总金额）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计（总金额）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计（提点总计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提点（120/万）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队合计（业绩总和）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +663,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,7 +672,10 @@
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -676,10 +683,10 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -723,13 +730,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -770,13 +777,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -820,10 +827,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>2</v>
@@ -852,19 +859,19 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>3</v>
@@ -887,16 +894,16 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -937,13 +944,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -978,10 +985,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -990,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>32</v>
@@ -1008,10 +1015,10 @@
         <v>35</v>
       </c>
       <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
         <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>23</v>
@@ -1019,17 +1026,17 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>31</v>
@@ -1041,27 +1048,27 @@
         <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
         <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -1083,10 +1090,10 @@
         <v>11</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
         <v>12</v>

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>合同编号</t>
   </si>
@@ -105,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代金券抵扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出金时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +261,10 @@
   </si>
   <si>
     <t>团队合计（业绩总和）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,10 +679,10 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -730,13 +726,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -777,13 +773,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -819,7 +815,7 @@
         <v>23</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
@@ -827,10 +823,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>2</v>
@@ -859,19 +855,19 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>3</v>
@@ -894,16 +890,16 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -944,13 +940,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -982,43 +978,43 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
         <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>23</v>
@@ -1026,49 +1022,49 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="M9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>64</v>
       </c>
-      <c r="O9" t="s">
-        <v>66</v>
-      </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -1090,59 +1086,59 @@
         <v>11</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I11" t="s">
         <v>5</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J11" t="s">
         <v>6</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K11" t="s">
         <v>7</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="M11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
         <v>9</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P11" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q11" t="s">
         <v>11</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T11" t="s">
         <v>12</v>
       </c>
     </row>
